--- a/G04_attendance.xlsx
+++ b/G04_attendance.xlsx
@@ -12,12 +12,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>RUIEY</t>
-  </si>
-  <si>
-    <t>A0202106U</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>CS2101 G04 Attendance Sheet</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Student Number</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>AARON TAN</t>
+  </si>
+  <si>
+    <t>A0123456U</t>
+  </si>
+  <si>
+    <t>BU WEN JIN</t>
+  </si>
+  <si>
+    <t>A0123456M</t>
+  </si>
+  <si>
+    <t>LAU XIN YEE</t>
+  </si>
+  <si>
+    <t>A0765432U</t>
+  </si>
+  <si>
+    <t>LIM CHUN YONG</t>
+  </si>
+  <si>
+    <t>A0388443R</t>
+  </si>
+  <si>
+    <t>LIM JIA RUI RYAN</t>
+  </si>
+  <si>
+    <t>A0587314L</t>
+  </si>
+  <si>
+    <t>NEO RUI EN MAYBELLINE</t>
+  </si>
+  <si>
+    <t>A0139345U</t>
   </si>
 </sst>
 </file>
@@ -62,20 +122,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:D2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="2">
-      <c r="B2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/G04_attendance.xlsx
+++ b/G04_attendance.xlsx
@@ -179,7 +179,7 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -208,7 +208,7 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -237,7 +237,7 @@
         <v>0.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -266,7 +266,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -295,7 +295,7 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -324,7 +324,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/G04_attendance.xlsx
+++ b/G04_attendance.xlsx
@@ -44,16 +44,10 @@
     <t>4-1</t>
   </si>
   <si>
-    <t>ALICE</t>
-  </si>
-  <si>
-    <t>A0000002U</t>
-  </si>
-  <si>
-    <t>BENNY</t>
-  </si>
-  <si>
-    <t>A0000001U</t>
+    <t>AARON TAN</t>
+  </si>
+  <si>
+    <t>A0123456U</t>
   </si>
   <si>
     <t>BU WEN JIN</t>
@@ -68,16 +62,22 @@
     <t>A0765432U</t>
   </si>
   <si>
-    <t>RYAN LIM</t>
-  </si>
-  <si>
-    <t>A0000000U</t>
-  </si>
-  <si>
-    <t>RYAN TAN</t>
-  </si>
-  <si>
-    <t>A0000004U</t>
+    <t>LIM CHUN YONG</t>
+  </si>
+  <si>
+    <t>A0388443R</t>
+  </si>
+  <si>
+    <t>LIM JIA RUI RYAN</t>
+  </si>
+  <si>
+    <t>A0587314L</t>
+  </si>
+  <si>
+    <t>NEO RUI EN MAYBELLINE</t>
+  </si>
+  <si>
+    <t>A0139345U</t>
   </si>
 </sst>
 </file>
